--- a/作品总计.xlsx
+++ b/作品总计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/天坑企划/拉力赛/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/LLS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2460F4-78AD-8247-8C23-924F6612EA4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B2540B-3776-784D-BC36-4CD7B985E4F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{21474D36-4D57-C348-AD7E-A6C14114E78A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{21474D36-4D57-C348-AD7E-A6C14114E78A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,6 +646,15 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8">
+        <v>1546</v>
+      </c>
+      <c r="E8">
+        <v>369</v>
+      </c>
+      <c r="F8">
+        <v>3238</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">

--- a/作品总计.xlsx
+++ b/作品总计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/LLS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B2540B-3776-784D-BC36-4CD7B985E4F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4EDEE0-C83D-EE44-8EC0-B0E0E079DA82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{21474D36-4D57-C348-AD7E-A6C14114E78A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11440" windowHeight="15540" xr2:uid="{21474D36-4D57-C348-AD7E-A6C14114E78A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,6 +666,15 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
+      <c r="D9">
+        <v>1431</v>
+      </c>
+      <c r="E9">
+        <v>341</v>
+      </c>
+      <c r="F9">
+        <v>3225</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -676,6 +685,15 @@
       </c>
       <c r="C10" t="s">
         <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1299</v>
+      </c>
+      <c r="E10">
+        <v>309</v>
+      </c>
+      <c r="F10">
+        <v>3222</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/作品总计.xlsx
+++ b/作品总计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/LLS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4EDEE0-C83D-EE44-8EC0-B0E0E079DA82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6323CC-D573-3B42-A0B9-0B42A3B7E095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="11440" windowHeight="15540" xr2:uid="{21474D36-4D57-C348-AD7E-A6C14114E78A}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,6 +706,15 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
+      <c r="D11">
+        <v>1196</v>
+      </c>
+      <c r="E11">
+        <v>289</v>
+      </c>
+      <c r="F11">
+        <v>3217</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A12">

--- a/作品总计.xlsx
+++ b/作品总计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/LLS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6323CC-D573-3B42-A0B9-0B42A3B7E095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9ABB87-DFAA-1747-B956-217D3D0B6B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="11440" windowHeight="15540" xr2:uid="{21474D36-4D57-C348-AD7E-A6C14114E78A}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,6 +726,15 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
+      <c r="D12">
+        <v>1122</v>
+      </c>
+      <c r="E12">
+        <v>271</v>
+      </c>
+      <c r="F12">
+        <v>3211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
